--- a/2do/ISO/Practica4/ejer10.xlsx
+++ b/2do/ISO/Practica4/ejer10.xlsx
@@ -24,19 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="22">
-  <si>
-    <t>Suma</t>
-  </si>
-  <si>
-    <t>Promedio</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Cuenta</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="31">
   <si>
     <t>Marco/Pagina</t>
   </si>
@@ -90,6 +78,45 @@
   </si>
   <si>
     <t>B5</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>B2M</t>
+  </si>
+  <si>
+    <t>B2M*</t>
+  </si>
+  <si>
+    <t>A2M</t>
+  </si>
+  <si>
+    <t>A2M*</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>LRU</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>C1M*</t>
+  </si>
+  <si>
+    <t>C7</t>
   </si>
 </sst>
 </file>
@@ -445,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK37"/>
+  <dimension ref="A1:AM37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" topLeftCell="G10" workbookViewId="0">
+      <selection activeCell="AK24" sqref="AK24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -456,251 +483,725 @@
     <col min="1" max="1" width="3.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="37" width="4.6640625" customWidth="1"/>
+    <col min="4" max="39" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1">
         <f>INT(4/13*6)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <f>INT(4/13*6)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <f>INT(5/12*6)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="U5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="X5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG5" s="6"/>
+      <c r="AH5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI5" s="6"/>
+      <c r="AJ5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK5" s="6"/>
+      <c r="AL5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="6"/>
-      <c r="AC5" s="6"/>
-      <c r="AD5" s="6"/>
-      <c r="AE5" s="6"/>
-      <c r="AF5" s="6"/>
-      <c r="AG5" s="6"/>
-      <c r="AH5" s="6"/>
-      <c r="AI5" s="6"/>
-      <c r="AJ5" s="6"/>
-      <c r="AK5" s="6"/>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AM5" s="6"/>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
       <c r="C6" s="3">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="L6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="N6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O6" t="s">
+        <v>15</v>
+      </c>
+      <c r="P6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>15</v>
+      </c>
+      <c r="R6" t="s">
+        <v>15</v>
+      </c>
+      <c r="S6" t="s">
+        <v>15</v>
+      </c>
+      <c r="T6" t="s">
+        <v>15</v>
+      </c>
+      <c r="U6" t="s">
+        <v>15</v>
+      </c>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK6" s="4"/>
+      <c r="AL6" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
       <c r="C7" s="3">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="L7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>5</v>
+      </c>
+      <c r="O7" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>5</v>
+      </c>
+      <c r="R7" t="s">
+        <v>5</v>
+      </c>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" t="s">
+        <v>9</v>
+      </c>
+      <c r="V7" t="s">
+        <v>9</v>
+      </c>
+      <c r="W7" t="s">
+        <v>9</v>
+      </c>
+      <c r="X7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG7" s="4"/>
+      <c r="AH7" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>26</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
       <c r="C8" s="3">
         <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M8" s="4"/>
-    </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="N8" s="4"/>
+      <c r="O8" t="s">
+        <v>19</v>
+      </c>
+      <c r="P8" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" t="s">
+        <v>19</v>
+      </c>
+      <c r="S8" t="s">
+        <v>19</v>
+      </c>
+      <c r="T8" t="s">
+        <v>19</v>
+      </c>
+      <c r="U8" t="s">
+        <v>19</v>
+      </c>
+      <c r="V8" t="s">
+        <v>19</v>
+      </c>
+      <c r="W8" t="s">
+        <v>19</v>
+      </c>
+      <c r="X8" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC8" s="4"/>
+      <c r="AD8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
       <c r="C9" s="3">
         <v>3</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="N9" t="s">
+        <v>18</v>
+      </c>
+      <c r="O9" t="s">
+        <v>18</v>
+      </c>
+      <c r="P9" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>18</v>
+      </c>
+      <c r="R9" t="s">
+        <v>18</v>
+      </c>
+      <c r="S9" t="s">
+        <v>18</v>
+      </c>
+      <c r="T9" t="s">
+        <v>18</v>
+      </c>
+      <c r="U9" t="s">
+        <v>18</v>
+      </c>
+      <c r="V9" t="s">
+        <v>18</v>
+      </c>
+      <c r="W9" t="s">
+        <v>18</v>
+      </c>
+      <c r="X9" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA9" s="4"/>
+      <c r="AB9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
       <c r="C10" s="3">
         <v>4</v>
       </c>
       <c r="H10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="M10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="N10" t="s">
+        <v>9</v>
+      </c>
+      <c r="O10" t="s">
+        <v>9</v>
+      </c>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" t="s">
+        <v>23</v>
+      </c>
+      <c r="S10" t="s">
+        <v>22</v>
+      </c>
+      <c r="T10" t="s">
+        <v>22</v>
+      </c>
+      <c r="U10" t="s">
+        <v>22</v>
+      </c>
+      <c r="V10" t="s">
+        <v>22</v>
+      </c>
+      <c r="W10" t="s">
+        <v>23</v>
+      </c>
+      <c r="X10" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI10" s="4"/>
+      <c r="AJ10" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
       <c r="C11" s="3">
         <v>5</v>
       </c>
       <c r="K11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="N11" t="s">
+        <v>16</v>
+      </c>
+      <c r="O11" t="s">
+        <v>16</v>
+      </c>
+      <c r="P11" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>21</v>
+      </c>
+      <c r="R11" t="s">
+        <v>20</v>
+      </c>
+      <c r="S11" t="s">
+        <v>20</v>
+      </c>
+      <c r="T11" t="s">
+        <v>21</v>
+      </c>
+      <c r="U11" t="s">
+        <v>20</v>
+      </c>
+      <c r="V11" t="s">
+        <v>20</v>
+      </c>
+      <c r="W11" t="s">
+        <v>20</v>
+      </c>
+      <c r="X11" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE11" s="4"/>
+      <c r="AF11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
       <c r="C12" s="3">
         <v>6</v>
       </c>
@@ -713,15 +1214,89 @@
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="N12" t="s">
+        <v>17</v>
+      </c>
+      <c r="O12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P12" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>17</v>
+      </c>
+      <c r="R12" t="s">
+        <v>17</v>
+      </c>
+      <c r="S12" t="s">
+        <v>17</v>
+      </c>
+      <c r="T12" t="s">
+        <v>17</v>
+      </c>
+      <c r="U12" t="s">
+        <v>17</v>
+      </c>
+      <c r="V12" t="s">
+        <v>17</v>
+      </c>
+      <c r="W12" t="s">
+        <v>17</v>
+      </c>
+      <c r="X12" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y12" s="4"/>
+      <c r="Z12" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>17</v>
+      </c>
+      <c r="AM12" s="4"/>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -744,42 +1319,108 @@
       <c r="L13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+      <c r="X13">
+        <v>1</v>
+      </c>
+      <c r="Z13">
+        <v>1</v>
+      </c>
+      <c r="AB13">
+        <v>1</v>
+      </c>
+      <c r="AD13">
+        <v>1</v>
+      </c>
+      <c r="AF13">
+        <v>1</v>
+      </c>
+      <c r="AH13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I14" t="s">
-        <v>9</v>
-      </c>
-      <c r="J14" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="H14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="T14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="V14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="W14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="X14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y14" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="3:39" x14ac:dyDescent="0.3">
       <c r="D18" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E18" s="5">
         <v>1</v>
@@ -790,25 +1431,25 @@
       <c r="G18" s="5">
         <v>1</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="5">
         <v>7</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="5">
         <v>2</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="5">
         <v>7</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="5">
         <v>3</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:39" x14ac:dyDescent="0.3">
       <c r="D19" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E19" s="5">
         <v>1</v>
@@ -819,22 +1460,22 @@
       <c r="G19" s="5">
         <v>5</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="5">
         <v>2</v>
       </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <v>4</v>
-      </c>
-      <c r="K19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="I19" s="5">
+        <v>1</v>
+      </c>
+      <c r="J19" s="5">
+        <v>4</v>
+      </c>
+      <c r="K19" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="3:39" x14ac:dyDescent="0.3">
       <c r="D20" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E20" s="5">
         <v>1</v>
@@ -842,94 +1483,743 @@
       <c r="F20" s="5">
         <v>3</v>
       </c>
-      <c r="G20">
-        <v>5</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <v>4</v>
-      </c>
-      <c r="J20">
+      <c r="G20" s="5">
+        <v>5</v>
+      </c>
+      <c r="H20" s="5">
+        <v>1</v>
+      </c>
+      <c r="I20" s="5">
+        <v>4</v>
+      </c>
+      <c r="J20" s="5">
         <v>2</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="S22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="V22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y22" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z22" s="6"/>
+      <c r="AA22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB22" s="6"/>
+      <c r="AC22" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD22" s="6"/>
+      <c r="AE22" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF22" s="6"/>
+      <c r="AG22" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH22" s="6"/>
+      <c r="AI22" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ22" s="6"/>
+      <c r="AK22" s="6"/>
+      <c r="AL22" s="6"/>
+      <c r="AM22" s="6"/>
+    </row>
+    <row r="23" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C23" s="3">
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E23" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="G23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H23" t="s">
+        <v>4</v>
+      </c>
+      <c r="I23" t="s">
+        <v>4</v>
+      </c>
+      <c r="J23" t="s">
+        <v>29</v>
+      </c>
+      <c r="K23" t="s">
+        <v>15</v>
+      </c>
+      <c r="L23" t="s">
+        <v>15</v>
+      </c>
+      <c r="M23" t="s">
+        <v>15</v>
+      </c>
+      <c r="N23" t="s">
+        <v>15</v>
+      </c>
+      <c r="O23" t="s">
+        <v>15</v>
+      </c>
+      <c r="P23" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>15</v>
+      </c>
+      <c r="R23" t="s">
+        <v>15</v>
+      </c>
+      <c r="S23" t="s">
+        <v>15</v>
+      </c>
+      <c r="T23" t="s">
+        <v>15</v>
+      </c>
+      <c r="U23" t="s">
+        <v>15</v>
+      </c>
+      <c r="V23" t="s">
+        <v>15</v>
+      </c>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C24" s="3">
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="G24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" t="s">
+        <v>14</v>
+      </c>
+      <c r="K24" t="s">
+        <v>5</v>
+      </c>
+      <c r="L24" t="s">
+        <v>5</v>
+      </c>
+      <c r="M24" t="s">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>5</v>
+      </c>
+      <c r="O24" t="s">
+        <v>5</v>
+      </c>
+      <c r="P24" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>5</v>
+      </c>
+      <c r="R24" t="s">
+        <v>5</v>
+      </c>
+      <c r="S24" t="s">
+        <v>5</v>
+      </c>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" t="s">
+        <v>9</v>
+      </c>
+      <c r="W24" t="s">
+        <v>9</v>
+      </c>
+      <c r="X24" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH24" s="4"/>
+      <c r="AI24" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C25" s="3">
         <v>2</v>
       </c>
       <c r="F25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="G25" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25" t="s">
+        <v>6</v>
+      </c>
+      <c r="I25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J25" t="s">
+        <v>6</v>
+      </c>
+      <c r="K25" t="s">
+        <v>6</v>
+      </c>
+      <c r="L25" t="s">
+        <v>6</v>
+      </c>
+      <c r="M25" s="4"/>
+      <c r="N25" t="s">
+        <v>18</v>
+      </c>
+      <c r="O25" t="s">
+        <v>18</v>
+      </c>
+      <c r="P25" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>18</v>
+      </c>
+      <c r="R25" t="s">
+        <v>18</v>
+      </c>
+      <c r="S25" t="s">
+        <v>18</v>
+      </c>
+      <c r="T25" t="s">
+        <v>18</v>
+      </c>
+      <c r="U25" t="s">
+        <v>18</v>
+      </c>
+      <c r="V25" t="s">
+        <v>18</v>
+      </c>
+      <c r="W25" t="s">
+        <v>18</v>
+      </c>
+      <c r="X25" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB25" s="4"/>
+      <c r="AC25" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C26" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26" t="s">
+        <v>13</v>
+      </c>
+      <c r="K26" t="s">
+        <v>13</v>
+      </c>
+      <c r="L26" t="s">
+        <v>13</v>
+      </c>
+      <c r="M26" t="s">
+        <v>13</v>
+      </c>
+      <c r="N26" t="s">
+        <v>13</v>
+      </c>
+      <c r="O26" s="4"/>
+      <c r="P26" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>19</v>
+      </c>
+      <c r="R26" t="s">
+        <v>19</v>
+      </c>
+      <c r="S26" t="s">
+        <v>19</v>
+      </c>
+      <c r="T26" t="s">
+        <v>19</v>
+      </c>
+      <c r="U26" t="s">
+        <v>19</v>
+      </c>
+      <c r="V26" t="s">
+        <v>19</v>
+      </c>
+      <c r="W26" t="s">
+        <v>19</v>
+      </c>
+      <c r="X26" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD26" s="4"/>
+      <c r="AE26" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C27" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="H27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L27" t="s">
+        <v>9</v>
+      </c>
+      <c r="M27" t="s">
+        <v>9</v>
+      </c>
+      <c r="N27" t="s">
+        <v>9</v>
+      </c>
+      <c r="O27" t="s">
+        <v>9</v>
+      </c>
+      <c r="P27" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" t="s">
+        <v>22</v>
+      </c>
+      <c r="T27" t="s">
+        <v>22</v>
+      </c>
+      <c r="U27" t="s">
+        <v>22</v>
+      </c>
+      <c r="V27" t="s">
+        <v>22</v>
+      </c>
+      <c r="W27" t="s">
+        <v>22</v>
+      </c>
+      <c r="X27" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ27" s="4"/>
+    </row>
+    <row r="28" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C28" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="K28" t="s">
+        <v>16</v>
+      </c>
+      <c r="L28" t="s">
+        <v>16</v>
+      </c>
+      <c r="M28" t="s">
+        <v>16</v>
+      </c>
+      <c r="N28" t="s">
+        <v>16</v>
+      </c>
+      <c r="O28" t="s">
+        <v>16</v>
+      </c>
+      <c r="P28" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>16</v>
+      </c>
+      <c r="R28" t="s">
+        <v>21</v>
+      </c>
+      <c r="S28" t="s">
+        <v>20</v>
+      </c>
+      <c r="T28" t="s">
+        <v>20</v>
+      </c>
+      <c r="U28" t="s">
+        <v>21</v>
+      </c>
+      <c r="V28" t="s">
+        <v>20</v>
+      </c>
+      <c r="W28" t="s">
+        <v>20</v>
+      </c>
+      <c r="X28" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF28" s="4"/>
+      <c r="AG28" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C29" s="3">
         <v>6</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" t="s">
+        <v>17</v>
+      </c>
+      <c r="M29" t="s">
+        <v>17</v>
+      </c>
+      <c r="N29" t="s">
+        <v>17</v>
+      </c>
+      <c r="O29" t="s">
+        <v>17</v>
+      </c>
+      <c r="P29" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>17</v>
+      </c>
+      <c r="R29" t="s">
+        <v>17</v>
+      </c>
+      <c r="S29" t="s">
+        <v>17</v>
+      </c>
+      <c r="T29" t="s">
+        <v>17</v>
+      </c>
+      <c r="U29" t="s">
+        <v>17</v>
+      </c>
+      <c r="V29" t="s">
+        <v>17</v>
+      </c>
+      <c r="W29" t="s">
+        <v>17</v>
+      </c>
+      <c r="X29" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z29" s="4"/>
+      <c r="AA29" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -940,35 +2230,119 @@
       <c r="F30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="P30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
-        <v>12</v>
+        <v>27</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M31" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N31" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O31" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="P31" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q31" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R31" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="S31" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="T31" t="s">
+        <v>24</v>
+      </c>
+      <c r="U31" t="s">
+        <v>17</v>
+      </c>
+      <c r="V31" t="s">
+        <v>4</v>
+      </c>
+      <c r="W31" t="s">
+        <v>28</v>
+      </c>
+      <c r="X31" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D35" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="E35" s="5">
+        <v>1</v>
+      </c>
+      <c r="F35" s="5">
         <v>2</v>
       </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
-      <c r="H35">
+      <c r="G35" s="5">
+        <v>1</v>
+      </c>
+      <c r="H35" s="5">
         <v>7</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="5">
         <v>2</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="5">
         <v>7</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="5">
         <v>3</v>
       </c>
       <c r="L35">
@@ -977,47 +2351,47 @@
     </row>
     <row r="36" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D36" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
         <v>2</v>
       </c>
-      <c r="G36">
-        <v>5</v>
-      </c>
-      <c r="H36">
+      <c r="E36" s="5">
+        <v>1</v>
+      </c>
+      <c r="F36" s="5">
         <v>2</v>
       </c>
-      <c r="I36">
-        <v>1</v>
-      </c>
-      <c r="J36">
-        <v>4</v>
-      </c>
-      <c r="K36">
+      <c r="G36" s="5">
+        <v>5</v>
+      </c>
+      <c r="H36" s="5">
+        <v>2</v>
+      </c>
+      <c r="I36" s="5">
+        <v>1</v>
+      </c>
+      <c r="J36" s="5">
+        <v>4</v>
+      </c>
+      <c r="K36" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="37" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D37" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
         <v>3</v>
       </c>
-      <c r="G37">
-        <v>5</v>
-      </c>
-      <c r="H37">
-        <v>1</v>
-      </c>
-      <c r="I37">
+      <c r="E37" s="5">
+        <v>1</v>
+      </c>
+      <c r="F37" s="5">
+        <v>3</v>
+      </c>
+      <c r="G37" s="5">
+        <v>5</v>
+      </c>
+      <c r="H37" s="5">
+        <v>1</v>
+      </c>
+      <c r="I37" s="5">
         <v>4</v>
       </c>
       <c r="J37">
